--- a/Tugas 16 (UAS)/Tugas16_Indah.xlsx
+++ b/Tugas 16 (UAS)/Tugas16_Indah.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Kuliah\Project Kuliah Indah\Project DPW 2 Indah\Dokumentasi-Tugas-DPW-2\Tugas 16 (UAS)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D6A30A-1DC5-41CD-A86C-EB5203C484D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,125 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70" count="70">
-  <si>
-    <t>NO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>URL GITHUB</t>
   </si>
   <si>
-    <t>TUGAS KE-</t>
-  </si>
-  <si>
     <t>URL IG / Youtube</t>
   </si>
   <si>
-    <t>https://github.com/fathur13/Tugas-1</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/Tugas2_DPW2</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_3</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_4</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_5</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_6</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_7</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/utsdpw2</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_9</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_10</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_11</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_12</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_13</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_14</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_15</t>
-  </si>
-  <si>
-    <t>https://github.com/fathur13/DPW2_Tugas_16_UAS</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TUHVAX1SGGE</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYyywyMl58o/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwwkdlPBIc/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwuOSoPhq_/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwuAqnvBFC/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwtzbQPZA0/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwtlSxvcxs/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwtZDWPFzy/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwtNW5v_aE/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwrKy9vCVK/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwpOB2PFi5/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwnpJjPP41/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwmdRZvpip/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CYwkeL8P6R8/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CUwYrpyvRWy/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CUv7_vlPgET/</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
     <t>Matkul</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
     <t>DPW2</t>
   </si>
   <si>
@@ -146,15 +48,6 @@
     <t>https://github.com/indahherniii/Tugas-1-DPW-2.git</t>
   </si>
   <si>
-    <t>https://github.com/indahherniii/Tugas-1-DPW-3.git</t>
-  </si>
-  <si>
-    <t>https://github.com/indahherniii/Tugas-1-DPW-4.git</t>
-  </si>
-  <si>
-    <t>https://github.com/indahherniii/Tugas-1-DPW-5.git</t>
-  </si>
-  <si>
     <t>https://github.com/indahherniii/Tugas-2-DPW-2.git</t>
   </si>
   <si>
@@ -228,42 +121,82 @@
   </si>
   <si>
     <t>https://youtu.be/CshKjb3vTXY</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0Ssrbv7zl/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0S-CBvv4b/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cheez.sea/p/CY0TXMiv9p1/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cheez.sea/p/CY0UFD-PHQP/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cheez.sea/p/CY0cJfMvYUr/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0dfcjPj4Z/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0eR0RvdVN/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0f9hlvtcz/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0hG2qvewv/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0h6lMvwI6/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CY0i9Q2Ptu1/?utm_medium=copy_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <u/>
       <sz val="11"/>
       <color indexed="4"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,15 +241,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,14 +257,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -622,308 +567,346 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C1" zoomScale="72">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="1" width="11.886719" style="0"/>
-    <col min="3" max="3" customWidth="1" width="98.0" style="0"/>
-    <col min="4" max="4" customWidth="1" width="77.109375" style="0"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="98" customWidth="1"/>
+    <col min="4" max="4" width="77.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" ht="16.4">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="8:8" ht="16.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8" ht="16.25">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8" ht="16.25">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8" ht="16.25">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8" ht="16.25">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8" ht="16.25">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8" ht="16.25">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="8:8" ht="16.25">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="8:8" ht="16.25">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="8:8" ht="16.25">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="8:8" ht="16.25">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8" ht="16.25">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="8:8" ht="16.25">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="8:8" ht="16.25">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="8:8" ht="16.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="8:8" ht="16.25">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="8:8" ht="15.05">
-      <c r="A18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="8:8" ht="15.05">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
-        <v>15.0</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="8:8" ht="19.5">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5">
-        <v>16.0</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C2" r:id="rId16"/>
-    <hyperlink ref="C3" r:id="rId17"/>
-    <hyperlink ref="C4" r:id="rId18"/>
-    <hyperlink ref="D5" r:id="rId19"/>
-    <hyperlink ref="D6" r:id="rId20"/>
-    <hyperlink ref="D7" r:id="rId21"/>
-    <hyperlink ref="D2" r:id="rId22"/>
-    <hyperlink ref="D3" r:id="rId23"/>
-    <hyperlink ref="D4" r:id="rId24"/>
-    <hyperlink ref="C20" r:id="rId25"/>
-    <hyperlink ref="D12" r:id="rId26"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C2" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D3" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D12" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D13" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D14" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D15" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D16" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D17" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
